--- a/NBA__WNBA_Daily_Stats.xlsx
+++ b/NBA__WNBA_Daily_Stats.xlsx
@@ -105,7 +105,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -114,13 +114,13 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -129,13 +129,13 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>76.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -144,13 +144,13 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>197.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
@@ -159,7 +159,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -174,7 +174,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>297.0</v>
+        <v>52.0</v>
       </c>
     </row>
   </sheetData>
@@ -191,7 +191,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -222,7 +222,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -231,37 +231,52 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>68.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Messaging</t>
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>60.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>128.0</v>
+        <v>74.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>76.0</v>
       </c>
     </row>
   </sheetData>
